--- a/WebSpa/App/Documents/Plantilla_Clientes.xlsx
+++ b/WebSpa/App/Documents/Plantilla_Clientes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario.DESKTOP-VND45SN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BACKUP\USB\SolucionesDigitales\SpaManagement\WebSpa\App\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8597319D-91E1-4877-B478-48C38F056951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4220BDD-7BDD-40B5-8C4E-51E8C7D46A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C8338F31-F4B1-44E0-8CEA-CA01C305077B}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C8338F31-F4B1-44E0-8CEA-CA01C305077B}"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">El formato de la feha de nacimiento, dede ser: DD/MM/YYYY
+          <t xml:space="preserve">El formato de la feha de nacimiento, dede ser: YYYY-MM-DD
 </t>
         </r>
       </text>
@@ -214,9 +214,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -298,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,11 +308,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -629,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2D0D63-346E-4412-B22A-C067322EEC04}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +642,7 @@
     <col min="5" max="5" width="24.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -670,7 +668,7 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -696,7 +694,7 @@
       <c r="G2" s="3">
         <v>3214567896</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>31922</v>
       </c>
     </row>
@@ -722,14 +720,11 @@
       <c r="G3" s="3">
         <v>3104785241</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>37347</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>43189741</v>
-      </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -748,7 +743,7 @@
       <c r="G4" s="3">
         <v>3112547896</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>34515</v>
       </c>
     </row>
@@ -772,10 +767,10 @@
         <v>26</v>
       </c>
       <c r="G5" s="3">
-        <v>3147896419</v>
-      </c>
-      <c r="H5" s="7">
-        <v>27269</v>
+        <v>3174568974</v>
+      </c>
+      <c r="H5" s="6">
+        <v>27260</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -800,8 +795,8 @@
       <c r="G6" s="5">
         <v>3224587419</v>
       </c>
-      <c r="H6" s="7">
-        <v>32854</v>
+      <c r="H6" s="6">
+        <v>32867</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -826,7 +821,7 @@
       <c r="G7" s="5">
         <v>3017894563</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>29907</v>
       </c>
     </row>

--- a/WebSpa/App/Documents/Plantilla_Clientes.xlsx
+++ b/WebSpa/App/Documents/Plantilla_Clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BACKUP\USB\SolucionesDigitales\SpaManagement\WebSpa\App\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4220BDD-7BDD-40B5-8C4E-51E8C7D46A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825E769F-E95B-4468-8B6D-73585A05A2BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C8338F31-F4B1-44E0-8CEA-CA01C305077B}"/>
   </bookViews>
@@ -630,16 +630,16 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="26" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
